--- a/เช็คชื่อ/[2021-07-24] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-24] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF11E53-A428-417E-9267-126A95EB86F2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEB026-7D46-4360-91D8-DA737B26A9F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19455" yWindow="4935" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="35">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -480,24 +480,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F279" sqref="F279:G279"/>
+    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44371</v>
       </c>
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>44373</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>6</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>7</v>
       </c>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>9</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>10</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>44375</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3</v>
       </c>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6</v>
       </c>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>7</v>
       </c>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>8</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>9</v>
       </c>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>11</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>44377</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
         <v>0.83333333333333337</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>44378</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44379</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>10</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>11</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>44380</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>6</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>10</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>11</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>44382</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>44383</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5</v>
       </c>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>7</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>8</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>44384</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>4</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>8</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>9</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>10</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>11</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>44385</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>4</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>8</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>9</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>10</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>11</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>44386</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>4</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>5</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>10</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>11</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>44387</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>4</v>
       </c>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>7</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>8</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>9</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>10</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>11</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>44389</v>
       </c>
@@ -2584,7 +2584,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>4</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>5</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>8</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>9</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>11</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>44390</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>11</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44391</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>4</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>5</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>6</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>7</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>9</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>10</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>11</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44392</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>4</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="C191" s="2"/>
       <c r="E191" s="9"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="C192" s="2"/>
       <c r="E192" s="9"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>6</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>7</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>8</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>9</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="D196" s="10"/>
       <c r="E196" s="9"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>10</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>11</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44394</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>4</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>5</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>6</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>7</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>8</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>10</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>11</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>44396</v>
       </c>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="E211" s="9"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>6</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>9</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>11</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>44397</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="E223" s="9"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>3</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>7</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>8</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>9</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>10</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>11</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>44398</v>
       </c>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E235" s="9"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>3</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>5</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>6</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>7</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>8</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>10</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>11</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>44399</v>
       </c>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E247" s="9"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>2</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>5</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>6</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>7</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>8</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>9</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>10</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>44400</v>
       </c>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="E259" s="9"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>2</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>5</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>6</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>7</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>8</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>9</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>10</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>11</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>44401</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E271" s="9"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>2</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="C273" s="2"/>
       <c r="E273" s="9"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="C274" s="2"/>
       <c r="E274" s="9"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="C275" s="2"/>
       <c r="E275" s="9"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>5</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="C276" s="2"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>6</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>7</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="C278" s="2"/>
       <c r="E278" s="9"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>8</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>9</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>10</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>11</v>
       </c>
@@ -4296,6 +4296,158 @@
       </c>
       <c r="D282" s="9"/>
       <c r="E282" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1">
+        <v>44403</v>
+      </c>
+      <c r="B283" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="E283" s="9"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" s="2">
+        <v>0.78472222222222221</v>
+      </c>
+      <c r="E284" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2</v>
+      </c>
+      <c r="B285" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285" s="2"/>
+      <c r="E285" s="9"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>3</v>
+      </c>
+      <c r="B286" t="s">
+        <v>15</v>
+      </c>
+      <c r="C286" s="2">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="E286" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>4</v>
+      </c>
+      <c r="B287" t="s">
+        <v>8</v>
+      </c>
+      <c r="C287" s="2"/>
+      <c r="E287" s="9"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288" s="2">
+        <v>0.79236111111111107</v>
+      </c>
+      <c r="E288" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>6</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C289" s="10">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="D289" s="9"/>
+      <c r="E289" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>7</v>
+      </c>
+      <c r="B290" t="s">
+        <v>10</v>
+      </c>
+      <c r="C290" s="2">
+        <v>0.7895833333333333</v>
+      </c>
+      <c r="E290" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>8</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C291" s="10"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="9"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>9</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C292" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D292" s="10"/>
+      <c r="E292" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>10</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C293" s="2"/>
+      <c r="D293" s="9"/>
+      <c r="E293" s="9"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>11</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C294" s="2">
+        <v>0.79583333333333339</v>
+      </c>
+      <c r="D294" s="9"/>
+      <c r="E294" s="9">
         <v>1</v>
       </c>
     </row>

--- a/เช็คชื่อ/[2021-07-24] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-24] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFEB026-7D46-4360-91D8-DA737B26A9F7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1394ECBE-EA23-4C66-BF86-76CF89E6BBA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19455" yWindow="4935" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="35">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -480,24 +480,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E294"/>
+  <dimension ref="A1:E306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D291" sqref="D291"/>
+    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E300" sqref="E300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>44371</v>
       </c>
@@ -514,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -542,7 +542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -570,7 +570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -597,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -611,7 +611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -626,7 +626,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -640,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>44373</v>
       </c>
@@ -678,7 +678,7 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>4</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>5</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>6</v>
       </c>
@@ -762,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>7</v>
       </c>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>9</v>
       </c>
@@ -804,7 +804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>10</v>
       </c>
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>11</v>
       </c>
@@ -832,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>44375</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1</v>
       </c>
@@ -860,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>3</v>
       </c>
@@ -894,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>4</v>
       </c>
@@ -911,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>6</v>
       </c>
@@ -945,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>7</v>
       </c>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>9</v>
       </c>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>10</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>11</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>44377</v>
       </c>
@@ -1041,7 +1041,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B43" s="6">
         <v>0.83333333333333337</v>
       </c>
@@ -1105,7 +1105,7 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1133,7 +1133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>44378</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>44379</v>
       </c>
@@ -1269,7 +1269,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>8</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>9</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>10</v>
       </c>
@@ -1407,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>11</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>44380</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>4</v>
       </c>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>5</v>
       </c>
@@ -1490,7 +1490,7 @@
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>6</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>7</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>8</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>9</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>10</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>11</v>
       </c>
@@ -1575,7 +1575,7 @@
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>44382</v>
       </c>
@@ -1588,7 +1588,7 @@
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>2</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>5</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>6</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>7</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>8</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>9</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>10</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>11</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>44383</v>
       </c>
@@ -1760,7 +1760,7 @@
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>2</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>3</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>5</v>
       </c>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>6</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>9</v>
       </c>
@@ -1879,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>10</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>11</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>44384</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>3</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>4</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>6</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7</v>
       </c>
@@ -2022,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>8</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>9</v>
       </c>
@@ -2052,7 +2052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>10</v>
       </c>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="E113" s="9"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>11</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>44385</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>4</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>8</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>9</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>10</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>11</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>44386</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>3</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>4</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>5</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>7</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>8</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>9</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>10</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>11</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>44387</v>
       </c>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>3</v>
       </c>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>4</v>
       </c>
@@ -2485,7 +2485,7 @@
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>5</v>
       </c>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>6</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>8</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>9</v>
       </c>
@@ -2541,7 +2541,7 @@
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>10</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>11</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>44389</v>
       </c>
@@ -2584,7 +2584,7 @@
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>2</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>3</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>4</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>5</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>6</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>7</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>9</v>
       </c>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>10</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>11</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>44390</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>2</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>3</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>4</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>5</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>6</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>8</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>9</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>10</v>
       </c>
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>11</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>44391</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>2</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>3</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>4</v>
       </c>
@@ -2977,7 +2977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>5</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>6</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>8</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>9</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>10</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>11</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>44392</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3086,7 +3086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>2</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>3</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>4</v>
       </c>
@@ -3120,7 +3120,7 @@
       <c r="C191" s="2"/>
       <c r="E191" s="9"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>5</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="C192" s="2"/>
       <c r="E192" s="9"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>6</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>8</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="D195" s="9"/>
       <c r="E195" s="9"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>9</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="D196" s="10"/>
       <c r="E196" s="9"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>11</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>44394</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0.79166666666666663</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>1</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>2</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>3</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>4</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>5</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>6</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>7</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>8</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>9</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>10</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>44396</v>
       </c>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="E211" s="9"/>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>1</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>2</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>3</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>4</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>5</v>
       </c>
@@ -3417,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>6</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>7</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>8</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>9</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>10</v>
       </c>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>11</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>44397</v>
       </c>
@@ -3503,7 +3503,7 @@
       </c>
       <c r="E223" s="9"/>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>1</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>2</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>3</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>4</v>
       </c>
@@ -3555,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>5</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>6</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>7</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>8</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>9</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>10</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>11</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>44398</v>
       </c>
@@ -3655,7 +3655,7 @@
       </c>
       <c r="E235" s="9"/>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>1</v>
       </c>
@@ -3669,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>2</v>
       </c>
@@ -3683,7 +3683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>3</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>4</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>5</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>6</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>7</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>8</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>9</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>10</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>11</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>44399</v>
       </c>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="E247" s="9"/>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>1</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>2</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>3</v>
       </c>
@@ -3868,7 +3868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>4</v>
       </c>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>5</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>6</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>7</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>8</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>9</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>10</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>11</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>44400</v>
       </c>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="E259" s="9"/>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>1</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>2</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>3</v>
       </c>
@@ -4036,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>4</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>5</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>6</v>
       </c>
@@ -4079,7 +4079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>7</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>8</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>9</v>
       </c>
@@ -4123,7 +4123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>10</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>11</v>
       </c>
@@ -4155,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>44401</v>
       </c>
@@ -4164,7 +4164,7 @@
       </c>
       <c r="E271" s="9"/>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>1</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>2</v>
       </c>
@@ -4188,7 +4188,7 @@
       <c r="C273" s="2"/>
       <c r="E273" s="9"/>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>3</v>
       </c>
@@ -4198,7 +4198,7 @@
       <c r="C274" s="2"/>
       <c r="E274" s="9"/>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>4</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="C275" s="2"/>
       <c r="E275" s="9"/>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>5</v>
       </c>
@@ -4218,7 +4218,7 @@
       <c r="C276" s="2"/>
       <c r="E276" s="9"/>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>6</v>
       </c>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>7</v>
       </c>
@@ -4243,7 +4243,7 @@
       <c r="C278" s="2"/>
       <c r="E278" s="9"/>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>8</v>
       </c>
@@ -4254,7 +4254,7 @@
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>9</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>10</v>
       </c>
@@ -4284,7 +4284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>11</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>44403</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
       <c r="E283" s="9"/>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>1</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>2</v>
       </c>
@@ -4332,7 +4332,7 @@
       <c r="C285" s="2"/>
       <c r="E285" s="9"/>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>3</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>4</v>
       </c>
@@ -4356,7 +4356,7 @@
       <c r="C287" s="2"/>
       <c r="E287" s="9"/>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>5</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>6</v>
       </c>
@@ -4385,7 +4385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>7</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>8</v>
       </c>
@@ -4410,7 +4410,7 @@
       <c r="D291" s="9"/>
       <c r="E291" s="9"/>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>9</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>10</v>
       </c>
@@ -4436,7 +4436,7 @@
       <c r="D293" s="9"/>
       <c r="E293" s="9"/>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>11</v>
       </c>
@@ -4448,6 +4448,170 @@
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>44405</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>1</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296" s="2">
+        <v>0.77013888888888893</v>
+      </c>
+      <c r="E296" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>2</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" s="2">
+        <v>0.78541666666666676</v>
+      </c>
+      <c r="E297" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>3</v>
+      </c>
+      <c r="B298" t="s">
+        <v>15</v>
+      </c>
+      <c r="C298" s="2">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="E298" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>4</v>
+      </c>
+      <c r="B299" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" s="2">
+        <v>0.78125</v>
+      </c>
+      <c r="E299" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>16</v>
+      </c>
+      <c r="C300" s="2">
+        <v>0.80069444444444438</v>
+      </c>
+      <c r="E300" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>6</v>
+      </c>
+      <c r="B301" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C301" s="10">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D301" s="9"/>
+      <c r="E301" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>7</v>
+      </c>
+      <c r="B302" t="s">
+        <v>10</v>
+      </c>
+      <c r="C302" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E302" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>8</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C303" s="10">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D303" s="9"/>
+      <c r="E303" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>9</v>
+      </c>
+      <c r="B304" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C304" s="10">
+        <v>0.78888888888888886</v>
+      </c>
+      <c r="D304" s="10"/>
+      <c r="E304" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>10</v>
+      </c>
+      <c r="B305" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C305" s="2">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="D305" s="9"/>
+      <c r="E305" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>11</v>
+      </c>
+      <c r="B306" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C306" s="2">
+        <v>0.77847222222222223</v>
+      </c>
+      <c r="D306" s="9"/>
+      <c r="E306" s="9">
         <v>1</v>
       </c>
     </row>

--- a/เช็คชื่อ/[2021-07-24] เอกสารเช็คชื่อ.xlsx
+++ b/เช็คชื่อ/[2021-07-24] เอกสารเช็คชื่อ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\team4\เช็คชื่อ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1394ECBE-EA23-4C66-BF86-76CF89E6BBA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AC160F-6C4E-4C1A-B406-D8D5A83C1DD5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19545" yWindow="6690" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="35">
   <si>
     <t>ทีม 4</t>
   </si>
@@ -480,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E306"/>
+  <dimension ref="A1:E318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A280" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E300" sqref="E300"/>
+    <sheetView tabSelected="1" topLeftCell="A300" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E320" sqref="E320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4615,6 +4615,173 @@
         <v>1</v>
       </c>
     </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>44406</v>
+      </c>
+      <c r="B307" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>1</v>
+      </c>
+      <c r="B308" t="s">
+        <v>6</v>
+      </c>
+      <c r="C308" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E308" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>2</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E309" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>3</v>
+      </c>
+      <c r="B310" t="s">
+        <v>15</v>
+      </c>
+      <c r="C310" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E310" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>4</v>
+      </c>
+      <c r="B311" t="s">
+        <v>8</v>
+      </c>
+      <c r="C311" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E311" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>16</v>
+      </c>
+      <c r="C312" s="2">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="E312" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>6</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C313" s="10">
+        <v>0.7944444444444444</v>
+      </c>
+      <c r="D313" s="9"/>
+      <c r="E313" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>7</v>
+      </c>
+      <c r="B314" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="E314" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>8</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C315" s="10">
+        <v>0.7909722222222223</v>
+      </c>
+      <c r="D315" s="9"/>
+      <c r="E315" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>9</v>
+      </c>
+      <c r="B316" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C316" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D316" s="10"/>
+      <c r="E316" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>10</v>
+      </c>
+      <c r="B317" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C317" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D317" s="9"/>
+      <c r="E317" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>11</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C318" s="2">
+        <v>0.78819444444444453</v>
+      </c>
+      <c r="D318" s="9"/>
+      <c r="E318" s="9">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
